--- a/doc/社内OA.xlsx
+++ b/doc/社内OA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" tabRatio="827" activeTab="4"/>
+    <workbookView windowWidth="24345" windowHeight="12465" tabRatio="827" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目概要" sheetId="8" r:id="rId1"/>
@@ -734,12 +734,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
-      </rPr>
       <t>入社</t>
     </r>
     <r>
@@ -1485,8 +1479,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1555,6 +1549,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1592,14 +1592,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,16 +1621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,9 +1636,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,14 +1664,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1672,17 +1680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,10 +1696,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1712,26 +1711,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1750,12 +1750,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1816,24 +1810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1846,25 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,13 +1840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,7 +1870,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,43 +1912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,7 +1924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,7 +1942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,17 +2156,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2188,21 +2191,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2224,9 +2212,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2240,13 +2230,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,10 +2259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2277,91 +2271,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2370,44 +2364,44 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,6 +2450,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2482,7 +2479,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2494,16 +2491,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,10 +2527,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2631,8 +2628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2065020" y="3649980"/>
-          <a:ext cx="236220" cy="198120"/>
+          <a:off x="2270760" y="3838575"/>
+          <a:ext cx="236220" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2685,8 +2682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="3848100"/>
-          <a:ext cx="236220" cy="205740"/>
+          <a:off x="2263140" y="4048125"/>
+          <a:ext cx="236220" cy="217170"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2739,8 +2736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2042160" y="4046220"/>
-          <a:ext cx="236220" cy="213360"/>
+          <a:off x="2247900" y="4257675"/>
+          <a:ext cx="236220" cy="224790"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2798,8 +2795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1234440" y="2038350"/>
-          <a:ext cx="236220" cy="213360"/>
+          <a:off x="1371600" y="2124075"/>
+          <a:ext cx="236220" cy="224790"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2852,8 +2849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1234440" y="2251710"/>
-          <a:ext cx="220980" cy="213360"/>
+          <a:off x="1341120" y="2348865"/>
+          <a:ext cx="251460" cy="224790"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2906,8 +2903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1234440" y="2434590"/>
-          <a:ext cx="236220" cy="205740"/>
+          <a:off x="1371600" y="2543175"/>
+          <a:ext cx="236220" cy="217170"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -3204,42 +3201,42 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:2">
+    <row r="8" ht="16.5" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:3">
+    <row r="10" ht="16.5" spans="3:3">
       <c r="C10" s="1"/>
     </row>
   </sheetData>
@@ -3257,39 +3254,39 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="4:4">
+    <row r="7" ht="16.5" spans="4:4">
       <c r="D7" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:4">
+    <row r="8" ht="16.5" spans="4:4">
       <c r="D8" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="4:4">
+    <row r="9" ht="16.5" spans="4:4">
       <c r="D9" s="1" t="s">
         <v>270</v>
       </c>
@@ -3309,24 +3306,24 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>272</v>
       </c>
@@ -3343,52 +3340,52 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="3:3">
+    <row r="4" ht="16.5" spans="3:3">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="4:4">
+    <row r="7" ht="16.5" spans="4:4">
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:3">
+    <row r="11" ht="16.5" spans="3:3">
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="4:4">
+    <row r="12" ht="16.5" spans="4:4">
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3413,331 +3410,331 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="16.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="12.3981481481481" customWidth="1"/>
+    <col min="4" max="4" width="16.2" customWidth="1"/>
+    <col min="5" max="5" width="12.4" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="12.3981481481481" customWidth="1"/>
-    <col min="11" max="11" width="11.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="12.4" customWidth="1"/>
+    <col min="11" max="11" width="11.8" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.2962962962963" customWidth="1"/>
+    <col min="15" max="15" width="11.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:3">
+    <row r="7" ht="16.5" spans="3:3">
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="16.35" spans="3:3">
+    <row r="10" ht="17.25" spans="3:3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" ht="94.35" spans="4:28">
-      <c r="D11" s="34" t="s">
+    <row r="11" ht="83.25" spans="4:28">
+      <c r="D11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-    </row>
-    <row r="12" ht="15.6" spans="4:19">
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36" t="s">
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+    </row>
+    <row r="12" ht="16.5" spans="4:19">
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="14" ht="15.6" spans="4:20">
-      <c r="D14" s="36" t="s">
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="14" ht="16.5" spans="4:20">
+      <c r="D14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="36" t="s">
+      <c r="O14" s="38"/>
+      <c r="P14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="36" t="s">
+      <c r="Q14" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T14" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="14.55"/>
-    <row r="16" ht="94.35" spans="4:14">
-      <c r="D16" s="38" t="s">
+    <row r="15" ht="15"/>
+    <row r="16" ht="83.25" spans="4:14">
+      <c r="D16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="40" t="s">
         <v>64</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="4:4">
+    <row r="18" ht="16.5" spans="4:4">
       <c r="D18" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="3:3">
+    <row r="20" ht="16.5" spans="3:3">
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="4:4">
+    <row r="21" ht="16.5" spans="4:4">
       <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="3:3">
+    <row r="23" ht="16.5" spans="3:3">
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="16.35" spans="4:4">
+    <row r="24" ht="17.25" spans="4:4">
       <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="14.55" spans="12:20">
-      <c r="L25" s="45" t="s">
+    <row r="25" ht="15" spans="12:20">
+      <c r="L25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="57"/>
-    </row>
-    <row r="26" ht="16.35" spans="3:20">
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="58"/>
+    </row>
+    <row r="26" ht="17.25" spans="3:20">
       <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="57"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="58"/>
     </row>
     <row r="27" ht="24.75" spans="4:21">
       <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49" t="s">
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="P27" s="50" t="s">
+      <c r="P27" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="Q27" s="50" t="s">
+      <c r="Q27" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R27" s="50" t="s">
+      <c r="R27" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="51" t="s">
         <v>83</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" ht="24.75" spans="4:20">
+    <row r="28" ht="17.25" spans="4:20">
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="52">
         <v>1</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50" t="s">
+      <c r="O28" s="51"/>
+      <c r="P28" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-    </row>
-    <row r="29" ht="16.35" spans="4:20">
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+    </row>
+    <row r="29" ht="17.25" spans="4:20">
       <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
@@ -3750,40 +3747,40 @@
       <c r="G29" t="s">
         <v>93</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="52">
         <v>2</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-    </row>
-    <row r="30" ht="15.6" spans="4:4">
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+    </row>
+    <row r="30" ht="16.5" spans="4:4">
       <c r="D30" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="4:4">
+    <row r="31" ht="16.5" spans="4:4">
       <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="4:4">
+    <row r="32" ht="16.5" spans="4:4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" ht="15.6" spans="3:3">
+    <row r="33" ht="16.5" spans="3:3">
       <c r="C33" t="s">
         <v>99</v>
       </c>
@@ -3793,12 +3790,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="4:4">
+    <row r="36" ht="16.5" spans="4:4">
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="4:15">
+    <row r="37" ht="16.5" spans="4:15">
       <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
@@ -3855,50 +3852,50 @@
   <sheetPr/>
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="10" max="11" width="12.3981481481481" customWidth="1"/>
-    <col min="12" max="12" width="11.7962962962963" customWidth="1"/>
-    <col min="14" max="14" width="12.3981481481481" customWidth="1"/>
-    <col min="16" max="16" width="12.3981481481481" customWidth="1"/>
+    <col min="10" max="11" width="12.4" customWidth="1"/>
+    <col min="12" max="12" width="11.8" customWidth="1"/>
+    <col min="14" max="14" width="12.4" customWidth="1"/>
+    <col min="16" max="16" width="12.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:3">
+    <row r="6" ht="16.5" spans="2:3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:2">
+    <row r="7" ht="16.5" spans="2:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" ht="16.35" spans="11:13">
-      <c r="K8" s="30" t="s">
+    <row r="8" ht="17.25" spans="11:13">
+      <c r="K8" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" ht="49.35" spans="3:16">
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" ht="50.25" spans="3:16">
       <c r="C9" s="18" t="s">
         <v>113</v>
       </c>
@@ -3979,53 +3976,52 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" ht="14.55"/>
-    <row r="13" ht="33.15" spans="2:13">
+    <row r="13" ht="33.75" spans="2:13">
       <c r="B13" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" ht="16.35" spans="4:5">
+    <row r="16" ht="17.25" spans="4:5">
       <c r="D16" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" ht="39.15" spans="3:14">
-      <c r="C17" s="25" t="s">
+    <row r="17" ht="38.25" spans="3:14">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4034,19 +4030,19 @@
       <c r="E17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="34" t="s">
         <v>157</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -4062,18 +4058,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="5:6">
-      <c r="E18" s="28" t="s">
+    <row r="18" ht="16.5" spans="5:6">
+      <c r="E18" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="20" ht="15.6" spans="3:3">
+      <c r="F18" s="30"/>
+    </row>
+    <row r="20" ht="16.5" spans="3:3">
       <c r="C20" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="3:3">
+    <row r="22" ht="16.5" spans="3:3">
       <c r="C22" s="1" t="s">
         <v>164</v>
       </c>
@@ -4092,43 +4088,43 @@
   <sheetPr/>
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="8.60185185185185" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="20.3981481481481" customWidth="1"/>
-    <col min="11" max="11" width="18.2962962962963" customWidth="1"/>
-    <col min="12" max="12" width="41.7962962962963" customWidth="1"/>
-    <col min="13" max="13" width="14.3981481481481" customWidth="1"/>
+    <col min="9" max="9" width="11.8916666666667" customWidth="1"/>
+    <col min="10" max="10" width="20.4" customWidth="1"/>
+    <col min="11" max="11" width="18.3" customWidth="1"/>
+    <col min="12" max="12" width="41.8" customWidth="1"/>
+    <col min="13" max="13" width="14.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:3">
+    <row r="6" ht="16.5" spans="2:3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:14">
+    <row r="8" ht="16.5" spans="4:14">
       <c r="D8" s="12" t="s">
         <v>166</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="4:13">
+    <row r="10" ht="16.5" spans="4:13">
       <c r="D10" s="17" t="s">
         <v>177</v>
       </c>
@@ -4200,17 +4196,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="3:3">
+    <row r="13" ht="16.5" spans="3:3">
       <c r="C13" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="3:3">
+    <row r="15" ht="16.5" spans="3:3">
       <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="4:4">
+    <row r="16" ht="16.5" spans="4:4">
       <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
@@ -4230,32 +4226,32 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="71.7037037037037" customWidth="1"/>
+    <col min="7" max="7" width="71.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="4:7">
+    <row r="7" ht="16.5" spans="4:7">
       <c r="D7" s="10" t="s">
         <v>192</v>
       </c>
@@ -4269,33 +4265,33 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:7">
+    <row r="8" ht="16.5" spans="4:7">
       <c r="D8" s="1"/>
       <c r="F8" s="14"/>
       <c r="G8" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:7">
+    <row r="9" ht="16.5" spans="6:7">
       <c r="F9" s="14"/>
       <c r="G9" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:6">
+    <row r="10" ht="16.5" spans="6:6">
       <c r="F10" s="1"/>
     </row>
-    <row r="12" ht="15.6" spans="4:4">
+    <row r="12" ht="16.5" spans="4:4">
       <c r="D12" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="5:5">
+    <row r="14" ht="16.5" spans="5:5">
       <c r="E14" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="5:5">
+    <row r="15" ht="16.5" spans="5:5">
       <c r="E15" t="s">
         <v>200</v>
       </c>
@@ -4322,7 +4318,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="23" ht="15.6" spans="4:4">
+    <row r="23" ht="16.5" spans="4:4">
       <c r="D23" s="13" t="s">
         <v>201</v>
       </c>
@@ -4346,54 +4342,54 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="6" width="11.6018518518519" customWidth="1"/>
-    <col min="7" max="7" width="10.2037037037037" customWidth="1"/>
-    <col min="9" max="9" width="10.3981481481481" customWidth="1"/>
-    <col min="10" max="10" width="12.3981481481481" customWidth="1"/>
-    <col min="11" max="11" width="10.3981481481481" customWidth="1"/>
-    <col min="12" max="13" width="12.3981481481481" customWidth="1"/>
-    <col min="14" max="14" width="10.3981481481481" customWidth="1"/>
-    <col min="15" max="15" width="12.3981481481481" customWidth="1"/>
+    <col min="5" max="6" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="10.2" customWidth="1"/>
+    <col min="9" max="9" width="10.4" customWidth="1"/>
+    <col min="10" max="10" width="12.4" customWidth="1"/>
+    <col min="11" max="11" width="10.4" customWidth="1"/>
+    <col min="12" max="13" width="12.4" customWidth="1"/>
+    <col min="14" max="14" width="10.4" customWidth="1"/>
+    <col min="15" max="15" width="12.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="4:4">
+    <row r="7" ht="16.5" spans="4:4">
       <c r="D7" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="4:4">
+    <row r="10" ht="16.5" spans="4:4">
       <c r="D10" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" ht="31.2" spans="5:14">
+    <row r="11" ht="33" spans="5:14">
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4425,17 +4421,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="4:4">
+    <row r="13" ht="16.5" spans="4:4">
       <c r="D13" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="4:4">
+    <row r="14" ht="16.5" spans="4:4">
       <c r="D14" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="5:9">
+    <row r="15" ht="16.5" spans="5:9">
       <c r="E15" t="s">
         <v>216</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="4:17">
+    <row r="17" ht="16.5" spans="4:17">
       <c r="D17" s="1" t="s">
         <v>221</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="5:19">
+    <row r="18" ht="16.5" spans="5:19">
       <c r="E18" s="1" t="s">
         <v>177</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="5:19">
+    <row r="19" ht="16.5" spans="5:19">
       <c r="E19" s="7"/>
       <c r="F19" s="8">
         <v>43548</v>
@@ -4556,7 +4552,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" ht="15.6" spans="5:19">
+    <row r="20" ht="16.5" spans="5:19">
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -4575,7 +4571,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" ht="15.6" spans="5:19">
+    <row r="21" ht="16.5" spans="5:19">
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -4594,17 +4590,17 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="23" ht="15.6" spans="3:3">
+    <row r="23" ht="16.5" spans="3:3">
       <c r="C23" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="4:4">
+    <row r="24" ht="16.5" spans="4:4">
       <c r="D24" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="4:6">
+    <row r="25" ht="16.5" spans="4:6">
       <c r="D25" t="s">
         <v>20</v>
       </c>
@@ -4631,69 +4627,69 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:3">
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:3">
+    <row r="7" ht="16.5" spans="3:3">
       <c r="C7" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:4">
+    <row r="8" ht="16.5" spans="4:4">
       <c r="D8" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:3">
+    <row r="10" ht="16.5" spans="3:3">
       <c r="C10" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:3">
+    <row r="12" ht="16.5" spans="3:3">
       <c r="C12" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="3:3">
+    <row r="13" ht="16.5" spans="3:3">
       <c r="C13" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="4:4">
+    <row r="14" ht="16.5" spans="4:4">
       <c r="D14" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="3:3">
+    <row r="15" ht="16.5" spans="3:3">
       <c r="C15" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="3:3">
+    <row r="16" ht="16.5" spans="3:3">
       <c r="C16" s="1" t="s">
         <v>255</v>
       </c>
@@ -4713,27 +4709,27 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="7" width="10.3981481481481" customWidth="1"/>
+    <col min="6" max="7" width="10.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:2">
+    <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="3:3">
+    <row r="3" ht="16.5" spans="3:3">
       <c r="C3" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" ht="16.5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="16.35" spans="2:3">
+    <row r="6" ht="17.25" spans="2:3">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>257</v>
@@ -4766,17 +4762,17 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="9" ht="15.6" spans="3:3">
+    <row r="9" ht="16.5" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:3">
+    <row r="10" ht="16.5" spans="3:3">
       <c r="C10" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:9">
+    <row r="11" ht="16.5" spans="3:9">
       <c r="C11">
         <v>1</v>
       </c>
@@ -4799,7 +4795,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:9">
+    <row r="12" ht="16.5" spans="3:9">
       <c r="C12">
         <v>2</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="3:9">
+    <row r="13" ht="16.5" spans="3:9">
       <c r="C13">
         <v>3</v>
       </c>
